--- a/egov2022.xlsx
+++ b/egov2022.xlsx
@@ -1,611 +1,604 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizettecrispinflorez/Desktop/DATAS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD8E77F-1391-2D40-B4E3-7025F67A5B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="28920" windowHeight="21860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="193">
-  <si>
-    <t>Country Name</t>
-  </si>
-  <si>
-    <t>E-Government Index</t>
-  </si>
-  <si>
-    <t>E-Participation Index</t>
-  </si>
-  <si>
-    <t>Online Service Index</t>
-  </si>
-  <si>
-    <t>Human Capital Index</t>
-  </si>
-  <si>
-    <t>Telecommunication Infrastructure Index</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>AntiguaandBarbuda</t>
-  </si>
-  <si>
-    <t>Americas</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>BosniaandHerzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>BruneiDarussalam</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>BurkinaFaso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>CaboVerde</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CentralAfricanRepublic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CostaRica</t>
-  </si>
-  <si>
-    <t>Côted'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>DominicanRepublic</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>ElSalvador</t>
-  </si>
-  <si>
-    <t>EquatorialGuinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran(IslamicRepublicof)</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>LaoPeople'sDemocraticRepublic</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>MarshallIslands</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia(FederatedStatesof)</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>NewZealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NorthMacedonia</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>PapuaNewGuinea</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>RussianFederation</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>SaintKittsandNevis</t>
-  </si>
-  <si>
-    <t>SaintLucia</t>
-  </si>
-  <si>
-    <t>SaintVincentandtheGrenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>SanMarino</t>
-  </si>
-  <si>
-    <t>SaoTomeandPrincipe</t>
-  </si>
-  <si>
-    <t>SaudiArabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>SierraLeone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>SolomonIslands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SouthAfrica</t>
-  </si>
-  <si>
-    <t>SouthSudan</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>SriLanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>SyrianArabRepublic</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>TrinidadandTobago</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>UnitedArabEmirates</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>VietNam</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+  <si>
+    <t xml:space="preserve">Pais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_gov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online_service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human_cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tele_infra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AntiguaandBarbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Americas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BosniaandHerzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BruneiDarussalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BurkinaFaso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CaboVerde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CentralAfricanRepublic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CostaRica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côted'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DominicanRepublic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ElSalvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EquatorialGuinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran(IslamicRepublicof)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaoPeople'sDemocraticRepublic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarshallIslands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia(FederatedStatesof)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewZealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NorthMacedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PapuaNewGuinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RussianFederation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaintKittsandNevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaintLucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaintVincentandtheGrenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SanMarino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaoTomeandPrincipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaudiArabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SierraLeone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SolomonIslands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SouthAfrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SouthSudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SriLanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SyrianArabRepublic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrinidadandTobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnitedArabEmirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VietNam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -641,15 +634,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -931,14 +915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -961,4163 +945,4163 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>21</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>19</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>28</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>35</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>74</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>76</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>82</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>80</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>60</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>54</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>23</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>37</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>70</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>71</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>38</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>51</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>76</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>88</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>33</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>47</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>46</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>59</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>42</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>42</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>81</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>83</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>65</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>81</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>92</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>73</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>73</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>58</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>72</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>79</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>69</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>96</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>99</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>94</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>100</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>88</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>90</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>77</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>88</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>91</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>85</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>69</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>39</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>61</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>79</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>68</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>72</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>40</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>62</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>76</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>80</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>77</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>44</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>75</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>82</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>74</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>54</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>52</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>65</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>59</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>71</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>40</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>54</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>86</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>73</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>76</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>43</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>53</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>90</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>84</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>84</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>45</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>69</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>96</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>83</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>47</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>44</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>67</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>39</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>38</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>34</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>52</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>44</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>53</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>47</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>60</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>53</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>53</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>61</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>53</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>49</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>75</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>64</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>52</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>17</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>27</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>69</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>68</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>80</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>90</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>90</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>80</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>68</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>72</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>48</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>59</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>76</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>84</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>78</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>74</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>71</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>82</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>80</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>30</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>23</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>37</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>28</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>34</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>34</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>48</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>54</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>25</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>50</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>65</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>55</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>47</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>28</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>42</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>54</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>56</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>41</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>28</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>39</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>59</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>86</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>83</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>85</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>93</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>78</v>
       </c>
       <c r="G32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>6</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>14</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>10</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>24</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>8</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>44</v>
       </c>
-      <c r="B34">
-        <v>12</v>
-      </c>
-      <c r="C34">
+      <c r="B34" t="n">
+        <v>12</v>
+      </c>
+      <c r="C34" t="n">
         <v>32</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>27</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>18</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>12</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>45</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>85</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>69</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>83</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>89</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>80</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>82</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>86</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>89</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>74</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>80</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>47</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>72</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>72</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>74</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>79</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>65</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>48</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>22</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>1</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>3</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>47</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>32</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>24</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>32</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>57</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>22</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>50</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>77</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>56</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>68</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>86</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>76</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>51</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>52</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>38</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>55</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>57</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>52</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>52</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>82</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>74</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>81</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>85</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>77</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>53</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>46</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>14</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>28</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>84</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>37</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>54</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>88</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>75</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>78</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>89</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>93</v>
       </c>
       <c r="G44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>55</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>100</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>89</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>98</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>96</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>98</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>56</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>22</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>11</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>22</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>35</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>28</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>57</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>56</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>9</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>30</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>68</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>76</v>
       </c>
       <c r="G47" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>58</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>63</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>45</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>62</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>75</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>56</v>
       </c>
       <c r="G48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
         <v>59</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>68</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>70</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>77</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>77</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>53</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
         <v>60</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>57</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>35</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>57</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>64</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>56</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
         <v>61</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>53</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>35</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>47</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>63</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>56</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
         <v>62</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>21</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>16</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>18</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>50</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>14</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" t="s">
         <v>63</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>10</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>2</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>43</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>8</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
         <v>64</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>96</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>98</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>100</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>92</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>89</v>
       </c>
       <c r="G54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
         <v>65</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>41</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>15</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>32</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>67</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
         <v>66</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>23</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>19</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>37</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>34</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>15</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
         <v>67</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>61</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>24</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>48</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>80</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>59</v>
       </c>
       <c r="G57" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
         <v>68</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>98</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>95</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>98</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>96</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>91</v>
       </c>
       <c r="G58" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
         <v>69</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>90</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>72</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>88</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>88</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>89</v>
       </c>
       <c r="G59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
         <v>70</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>53</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>20</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>36</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>67</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>63</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
         <v>71</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>25</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>24</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>15</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>33</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>45</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" t="s">
         <v>72</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>89</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>73</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>79</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>94</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>90</v>
       </c>
       <c r="G62" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
         <v>73</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>56</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>45</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>54</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>62</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>59</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" t="s">
         <v>74</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>86</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>61</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>78</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>94</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>82</v>
       </c>
       <c r="G64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" t="s">
         <v>75</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>72</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>20</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>55</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>90</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>73</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" t="s">
         <v>76</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>48</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>33</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>54</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>56</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="n">
         <v>43</v>
       </c>
       <c r="G66" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" t="s">
         <v>77</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>31</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>28</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>44</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>30</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>34</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" t="s">
         <v>78</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>19</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>8</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>6</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>36</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69" t="s">
         <v>79</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>49</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>22</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>45</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>65</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>46</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" t="s">
         <v>80</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>18</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>10</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>9</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>39</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>26</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71" t="s">
         <v>81</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>35</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>10</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>24</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>59</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>35</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" t="s">
         <v>82</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>79</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>51</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>75</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>83</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>77</v>
       </c>
       <c r="G72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" t="s">
         <v>83</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>97</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>80</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>89</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>97</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>97</v>
       </c>
       <c r="G73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" t="s">
         <v>84</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>57</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>59</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>79</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>58</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>40</v>
       </c>
       <c r="G74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" t="s">
         <v>85</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>71</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>72</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>76</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>74</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>64</v>
       </c>
       <c r="G75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" t="s">
         <v>86</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>63</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>18</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>42</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>78</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
         <v>73</v>
       </c>
       <c r="G76" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77" t="s">
         <v>87</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>40</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>22</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>21</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>59</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>52</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78" t="s">
         <v>88</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>87</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>68</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>78</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>96</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>83</v>
       </c>
       <c r="G78" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79" t="s">
         <v>89</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>91</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>72</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>87</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>90</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>89</v>
       </c>
       <c r="G79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80" t="s">
         <v>90</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>85</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>73</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>87</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>86</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>79</v>
       </c>
       <c r="G80" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" t="s">
         <v>91</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>57</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>28</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>49</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>71</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="n">
         <v>57</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" t="s">
         <v>92</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>92</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>100</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>91</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>88</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>91</v>
       </c>
       <c r="G82" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" t="s">
         <v>93</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>59</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>55</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>66</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>70</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
         <v>47</v>
       </c>
       <c r="G83" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="A84" t="s">
         <v>94</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>88</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>81</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>93</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>90</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="n">
         <v>75</v>
       </c>
       <c r="G84" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85" t="s">
         <v>95</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>53</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>58</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>68</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>56</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="n">
         <v>43</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="A86" t="s">
         <v>96</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>39</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>30</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>37</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>68</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>25</v>
       </c>
       <c r="G86" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" t="s">
         <v>97</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>75</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>55</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>70</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>77</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="n">
         <v>78</v>
       </c>
       <c r="G87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88" t="s">
         <v>98</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>69</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>50</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>62</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>81</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="n">
         <v>66</v>
       </c>
       <c r="G88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" t="s">
         <v>99</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>33</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>26</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>30</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>55</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="n">
         <v>28</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90" t="s">
         <v>100</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>87</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>74</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>81</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>93</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="n">
         <v>84</v>
       </c>
       <c r="G90" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" t="s">
         <v>101</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>50</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>40</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>43</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>67</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="n">
         <v>49</v>
       </c>
       <c r="G91" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92" t="s">
         <v>102</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>40</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>31</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>35</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>60</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="n">
         <v>38</v>
       </c>
       <c r="G92" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="A93" t="s">
         <v>103</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>23</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>30</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>34</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>42</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="n">
         <v>11</v>
       </c>
       <c r="G93" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="A94" t="s">
         <v>104</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>28</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>3</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>10</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>75</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="n">
         <v>16</v>
       </c>
       <c r="G94" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="A95" t="s">
         <v>105</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>88</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>55</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>73</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>87</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="n">
         <v>100</v>
       </c>
       <c r="G95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="A96" t="s">
         <v>106</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>89</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>55</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>83</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>93</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="n">
         <v>86</v>
       </c>
       <c r="G96" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="A97" t="s">
         <v>107</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>88</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>75</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>83</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>82</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="n">
         <v>95</v>
       </c>
       <c r="G97" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="A98" t="s">
         <v>108</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>31</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>28</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>35</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>54</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="n">
         <v>18</v>
       </c>
       <c r="G98" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="A99" t="s">
         <v>109</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>29</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>38</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>36</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>49</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="n">
         <v>18</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="A100" t="s">
         <v>110</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>78</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>68</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>76</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>76</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="n">
         <v>79</v>
       </c>
       <c r="G100" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="A101" t="s">
         <v>111</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>57</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>31</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>49</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>69</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="n">
         <v>58</v>
       </c>
       <c r="G101" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="A102" t="s">
         <v>112</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>29</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>27</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>37</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>22</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="n">
         <v>44</v>
       </c>
       <c r="G102" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="A103" t="s">
         <v>113</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>91</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>76</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>88</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>87</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="n">
         <v>92</v>
       </c>
       <c r="G103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="A104" t="s">
         <v>114</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>32</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>26</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>30</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>69</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="n">
         <v>12</v>
       </c>
       <c r="G104" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="A105" t="s">
         <v>115</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>26</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>2</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>10</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>39</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="n">
         <v>46</v>
       </c>
       <c r="G105" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="A106" t="s">
         <v>116</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>72</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>42</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>63</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>77</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="n">
         <v>76</v>
       </c>
       <c r="G106" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="A107" t="s">
         <v>117</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>75</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>73</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>82</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>79</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
         <v>63</v>
       </c>
       <c r="G107" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="A108" t="s">
         <v>118</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>30</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>22</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>27</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>68</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="n">
         <v>11</v>
       </c>
       <c r="G108" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="A109" t="s">
         <v>119</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>72</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>14</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>46</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>83</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="n">
         <v>88</v>
       </c>
       <c r="G109" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="A110" t="s">
         <v>120</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>72</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>60</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>63</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>84</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="n">
         <v>70</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="A111" t="s">
         <v>121</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>72</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>47</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>55</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>84</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="n">
         <v>79</v>
       </c>
       <c r="G111" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="A112" t="s">
         <v>122</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>57</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>27</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>47</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>64</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="n">
         <v>67</v>
       </c>
       <c r="G112" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="A113" t="s">
         <v>123</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>26</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>19</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>36</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>43</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="n">
         <v>15</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="A114" t="s">
         <v>124</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>47</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>31</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>31</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>58</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="n">
         <v>61</v>
       </c>
       <c r="G114" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="A115" t="s">
         <v>125</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>50</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>25</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>43</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>65</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="n">
         <v>51</v>
       </c>
       <c r="G115" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="A116" t="s">
         <v>126</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>42</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>25</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>30</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>59</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="n">
         <v>48</v>
       </c>
       <c r="G116" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="A117" t="s">
         <v>127</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>48</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>24</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>46</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>56</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="n">
         <v>51</v>
       </c>
       <c r="G117" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="A118" t="s">
         <v>128</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>96</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>97</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>90</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>95</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="n">
         <v>96</v>
       </c>
       <c r="G118" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="A119" t="s">
         <v>129</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>97</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>95</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>96</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>98</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="n">
         <v>89</v>
       </c>
       <c r="G119" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="A120" t="s">
         <v>130</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>47</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>25</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>48</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>60</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="n">
         <v>43</v>
       </c>
       <c r="G120" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="A121" t="s">
         <v>131</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>18</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>25</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>39</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>19</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="n">
         <v>14</v>
       </c>
       <c r="G121" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="A122" t="s">
         <v>132</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>41</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>31</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>52</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>44</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="n">
         <v>39</v>
       </c>
       <c r="G122" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="A123" t="s">
         <v>133</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>69</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>69</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>70</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>76</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="n">
         <v>64</v>
       </c>
       <c r="G123" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="A124" t="s">
         <v>134</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>91</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>69</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>80</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>95</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="n">
         <v>91</v>
       </c>
       <c r="G124" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="A125" t="s">
         <v>135</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>79</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>66</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>74</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>81</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="n">
         <v>80</v>
       </c>
       <c r="G125" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="A126" t="s">
         <v>136</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>38</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>36</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>57</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>39</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="n">
         <v>31</v>
       </c>
       <c r="G126" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="A127" t="s">
         <v>137</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>47</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>23</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>24</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>89</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="n">
         <v>37</v>
       </c>
       <c r="G127" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="A128" t="s">
         <v>138</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>69</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>51</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>67</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>75</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="n">
         <v>66</v>
       </c>
       <c r="G128" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="A129" t="s">
         <v>139</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>27</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>17</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>33</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>50</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="n">
         <v>14</v>
       </c>
       <c r="G129" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="A130" t="s">
         <v>140</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>62</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>51</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>61</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>69</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="n">
         <v>60</v>
       </c>
       <c r="G130" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="A131" t="s">
         <v>141</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>75</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>76</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>81</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>82</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="n">
         <v>63</v>
       </c>
       <c r="G131" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="A132" t="s">
         <v>142</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>64</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>49</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>63</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>76</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="n">
         <v>56</v>
       </c>
       <c r="G132" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="A133" t="s">
         <v>143</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>86</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>65</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>79</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>90</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="n">
         <v>83</v>
       </c>
       <c r="G133" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="A134" t="s">
         <v>144</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>84</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>73</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>80</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>87</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="n">
         <v>82</v>
       </c>
       <c r="G134" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="A135" t="s">
         <v>145</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>71</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>38</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>61</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>72</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="n">
         <v>82</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136">
       <c r="A136" t="s">
         <v>146</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>76</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>62</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>68</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>81</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="n">
         <v>80</v>
       </c>
       <c r="G136" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137">
       <c r="A137" t="s">
         <v>147</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>82</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>60</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>74</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>91</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="n">
         <v>81</v>
       </c>
       <c r="G137" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138">
       <c r="A138" t="s">
         <v>148</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>52</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>64</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>79</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>53</v>
       </c>
-      <c r="F138">
+      <c r="F138" t="n">
         <v>32</v>
       </c>
       <c r="G138" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139">
       <c r="A139" t="s">
         <v>149</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>67</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>20</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>33</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>87</v>
       </c>
-      <c r="F139">
+      <c r="F139" t="n">
         <v>83</v>
       </c>
       <c r="G139" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140">
       <c r="A140" t="s">
         <v>150</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>53</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>41</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>40</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="n">
         <v>70</v>
       </c>
-      <c r="F140">
+      <c r="F140" t="n">
         <v>57</v>
       </c>
       <c r="G140" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="A141" t="s">
         <v>151</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>56</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>39</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>45</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>74</v>
       </c>
-      <c r="F141">
+      <c r="F141" t="n">
         <v>55</v>
       </c>
       <c r="G141" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142">
       <c r="A142" t="s">
         <v>152</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>38</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>27</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>36</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="n">
         <v>75</v>
       </c>
-      <c r="F142">
+      <c r="F142" t="n">
         <v>16</v>
       </c>
       <c r="G142" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143">
       <c r="A143" t="s">
         <v>153</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>63</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>17</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>38</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="n">
         <v>75</v>
       </c>
-      <c r="F143">
+      <c r="F143" t="n">
         <v>81</v>
       </c>
       <c r="G143" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="A144" t="s">
         <v>154</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>37</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>5</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>24</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="n">
         <v>68</v>
       </c>
-      <c r="F144">
+      <c r="F144" t="n">
         <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145">
       <c r="A145" t="s">
         <v>155</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>87</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>69</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="n">
         <v>82</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="n">
         <v>87</v>
       </c>
-      <c r="F145">
+      <c r="F145" t="n">
         <v>87</v>
       </c>
       <c r="G145" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146">
       <c r="A146" t="s">
         <v>156</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>41</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>34</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>49</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="n">
         <v>35</v>
       </c>
-      <c r="F146">
+      <c r="F146" t="n">
         <v>50</v>
       </c>
       <c r="G146" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147">
       <c r="A147" t="s">
         <v>157</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>83</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>81</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="n">
         <v>85</v>
       </c>
-      <c r="E147">
+      <c r="E147" t="n">
         <v>83</v>
       </c>
-      <c r="F147">
+      <c r="F147" t="n">
         <v>79</v>
       </c>
       <c r="G147" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148">
       <c r="A148" t="s">
         <v>158</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>67</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>23</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="n">
         <v>44</v>
       </c>
-      <c r="E148">
+      <c r="E148" t="n">
         <v>78</v>
       </c>
-      <c r="F148">
+      <c r="F148" t="n">
         <v>82</v>
       </c>
       <c r="G148" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149">
       <c r="A149" t="s">
         <v>159</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>20</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>20</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>28</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="n">
         <v>25</v>
       </c>
-      <c r="F149">
+      <c r="F149" t="n">
         <v>26</v>
       </c>
       <c r="G149" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150">
       <c r="A150" t="s">
         <v>160</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>93</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>98</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="n">
         <v>96</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="n">
         <v>90</v>
       </c>
-      <c r="F150">
+      <c r="F150" t="n">
         <v>88</v>
       </c>
       <c r="G150" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151">
       <c r="A151" t="s">
         <v>161</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>81</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>47</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>73</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="n">
         <v>84</v>
       </c>
-      <c r="F151">
+      <c r="F151" t="n">
         <v>83</v>
       </c>
       <c r="G151" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152">
       <c r="A152" t="s">
         <v>162</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>89</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>75</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>87</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="n">
         <v>94</v>
       </c>
-      <c r="F152">
+      <c r="F152" t="n">
         <v>82</v>
       </c>
       <c r="G152" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153">
       <c r="A153" t="s">
         <v>163</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>30</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>22</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>37</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="n">
         <v>49</v>
       </c>
-      <c r="F153">
+      <c r="F153" t="n">
         <v>20</v>
       </c>
       <c r="G153" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154">
       <c r="A154" t="s">
         <v>164</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>6</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>25</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>29</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="n">
         <v>0</v>
       </c>
-      <c r="F154">
+      <c r="F154" t="n">
         <v>11</v>
       </c>
       <c r="G154" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155">
       <c r="A155" t="s">
         <v>165</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>73</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>59</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>75</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="n">
         <v>77</v>
       </c>
-      <c r="F155">
+      <c r="F155" t="n">
         <v>68</v>
       </c>
       <c r="G155" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156">
       <c r="A156" t="s">
         <v>166</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>0</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>0</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>5</v>
       </c>
-      <c r="E156">
+      <c r="E156" t="n">
         <v>20</v>
       </c>
-      <c r="F156">
+      <c r="F156" t="n">
         <v>0</v>
       </c>
       <c r="G156" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157">
       <c r="A157" t="s">
         <v>167</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>90</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>75</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>86</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="n">
         <v>91</v>
       </c>
-      <c r="F157">
+      <c r="F157" t="n">
         <v>89</v>
       </c>
       <c r="G157" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158">
       <c r="A158" t="s">
         <v>168</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>61</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>35</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>56</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="n">
         <v>77</v>
       </c>
-      <c r="F158">
+      <c r="F158" t="n">
         <v>55</v>
       </c>
       <c r="G158" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159">
       <c r="A159" t="s">
         <v>169</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>24</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>5</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>21</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="n">
         <v>36</v>
       </c>
-      <c r="F159">
+      <c r="F159" t="n">
         <v>32</v>
       </c>
       <c r="G159" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160">
       <c r="A160" t="s">
         <v>170</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>56</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>20</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>34</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="n">
         <v>69</v>
       </c>
-      <c r="F160">
+      <c r="F160" t="n">
         <v>71</v>
       </c>
       <c r="G160" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161">
       <c r="A161" t="s">
         <v>171</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>97</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>73</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>90</v>
       </c>
-      <c r="E161">
+      <c r="E161" t="n">
         <v>96</v>
       </c>
-      <c r="F161">
+      <c r="F161" t="n">
         <v>96</v>
       </c>
       <c r="G161" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162">
       <c r="A162" t="s">
         <v>172</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>89</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>70</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>77</v>
       </c>
-      <c r="E162">
+      <c r="E162" t="n">
         <v>91</v>
       </c>
-      <c r="F162">
+      <c r="F162" t="n">
         <v>94</v>
       </c>
       <c r="G162" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163">
       <c r="A163" t="s">
         <v>173</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>34</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>7</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>31</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="n">
         <v>50</v>
       </c>
-      <c r="F163">
+      <c r="F163" t="n">
         <v>36</v>
       </c>
       <c r="G163" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164">
       <c r="A164" t="s">
         <v>174</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>47</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>25</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>40</v>
       </c>
-      <c r="E164">
+      <c r="E164" t="n">
         <v>74</v>
       </c>
-      <c r="F164">
+      <c r="F164" t="n">
         <v>38</v>
       </c>
       <c r="G164" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165">
       <c r="A165" t="s">
         <v>175</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>77</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>78</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>78</v>
       </c>
-      <c r="E165">
+      <c r="E165" t="n">
         <v>79</v>
       </c>
-      <c r="F165">
+      <c r="F165" t="n">
         <v>73</v>
       </c>
       <c r="G165" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166">
       <c r="A166" t="s">
         <v>176</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>40</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>48</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>39</v>
       </c>
-      <c r="E166">
+      <c r="E166" t="n">
         <v>55</v>
       </c>
-      <c r="F166">
+      <c r="F166" t="n">
         <v>36</v>
       </c>
       <c r="G166" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167">
       <c r="A167" t="s">
         <v>177</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>38</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>39</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>43</v>
       </c>
-      <c r="E167">
+      <c r="E167" t="n">
         <v>55</v>
       </c>
-      <c r="F167">
+      <c r="F167" t="n">
         <v>28</v>
       </c>
       <c r="G167" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168">
       <c r="A168" t="s">
         <v>178</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="n">
         <v>49</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>26</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>33</v>
       </c>
-      <c r="E168">
+      <c r="E168" t="n">
         <v>87</v>
       </c>
-      <c r="F168">
+      <c r="F168" t="n">
         <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169">
       <c r="A169" t="s">
         <v>179</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="n">
         <v>62</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>24</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="n">
         <v>49</v>
       </c>
-      <c r="E169">
+      <c r="E169" t="n">
         <v>74</v>
       </c>
-      <c r="F169">
+      <c r="F169" t="n">
         <v>67</v>
       </c>
       <c r="G169" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170">
       <c r="A170" t="s">
         <v>180</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="n">
         <v>64</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>55</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>60</v>
       </c>
-      <c r="E170">
+      <c r="E170" t="n">
         <v>69</v>
       </c>
-      <c r="F170">
+      <c r="F170" t="n">
         <v>66</v>
       </c>
       <c r="G170" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171">
       <c r="A171" t="s">
         <v>181</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="n">
         <v>45</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>10</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="n">
         <v>30</v>
       </c>
-      <c r="E171">
+      <c r="E171" t="n">
         <v>79</v>
       </c>
-      <c r="F171">
+      <c r="F171" t="n">
         <v>36</v>
       </c>
       <c r="G171" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172">
       <c r="A172" t="s">
         <v>182</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="n">
         <v>33</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>17</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>23</v>
       </c>
-      <c r="E172">
+      <c r="E172" t="n">
         <v>65</v>
       </c>
-      <c r="F172">
+      <c r="F172" t="n">
         <v>26</v>
       </c>
       <c r="G172" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173">
       <c r="A173" t="s">
         <v>183</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="n">
         <v>40</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>41</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="n">
         <v>52</v>
       </c>
-      <c r="E173">
+      <c r="E173" t="n">
         <v>56</v>
       </c>
-      <c r="F173">
+      <c r="F173" t="n">
         <v>25</v>
       </c>
       <c r="G173" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174">
       <c r="A174" t="s">
         <v>184</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="n">
         <v>81</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>60</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="n">
         <v>81</v>
       </c>
-      <c r="E174">
+      <c r="E174" t="n">
         <v>87</v>
       </c>
-      <c r="F174">
+      <c r="F174" t="n">
         <v>73</v>
       </c>
       <c r="G174" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175">
       <c r="A175" t="s">
         <v>185</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="n">
         <v>92</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>78</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>90</v>
       </c>
-      <c r="E175">
+      <c r="E175" t="n">
         <v>87</v>
       </c>
-      <c r="F175">
+      <c r="F175" t="n">
         <v>93</v>
       </c>
       <c r="G175" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176">
       <c r="A176" t="s">
         <v>186</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="n">
         <v>85</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>59</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="n">
         <v>76</v>
       </c>
-      <c r="E176">
+      <c r="E176" t="n">
         <v>90</v>
       </c>
-      <c r="F176">
+      <c r="F176" t="n">
         <v>85</v>
       </c>
       <c r="G176" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177">
       <c r="A177" t="s">
         <v>187</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="n">
         <v>72</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>61</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="n">
         <v>74</v>
       </c>
-      <c r="E177">
+      <c r="E177" t="n">
         <v>78</v>
       </c>
-      <c r="F177">
+      <c r="F177" t="n">
         <v>66</v>
       </c>
       <c r="G177" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178">
       <c r="A178" t="s">
         <v>188</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="n">
         <v>47</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>34</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>42</v>
       </c>
-      <c r="E178">
+      <c r="E178" t="n">
         <v>60</v>
       </c>
-      <c r="F178">
+      <c r="F178" t="n">
         <v>47</v>
       </c>
       <c r="G178" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179">
       <c r="A179" t="s">
         <v>189</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="n">
         <v>67</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>53</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>65</v>
       </c>
-      <c r="E179">
+      <c r="E179" t="n">
         <v>69</v>
       </c>
-      <c r="F179">
+      <c r="F179" t="n">
         <v>70</v>
       </c>
       <c r="G179" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180">
       <c r="A180" t="s">
         <v>190</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="n">
         <v>23</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>19</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="n">
         <v>34</v>
       </c>
-      <c r="E180">
+      <c r="E180" t="n">
         <v>36</v>
       </c>
-      <c r="F180">
+      <c r="F180" t="n">
         <v>17</v>
       </c>
       <c r="G180" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181">
       <c r="A181" t="s">
         <v>191</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="n">
         <v>47</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>38</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>44</v>
       </c>
-      <c r="E181">
+      <c r="E181" t="n">
         <v>67</v>
       </c>
-      <c r="F181">
+      <c r="F181" t="n">
         <v>39</v>
       </c>
       <c r="G181" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182">
       <c r="A182" t="s">
         <v>192</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="n">
         <v>44</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>23</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>38</v>
       </c>
-      <c r="E182">
+      <c r="E182" t="n">
         <v>65</v>
       </c>
-      <c r="F182">
+      <c r="F182" t="n">
         <v>38</v>
       </c>
       <c r="G182" t="s">
@@ -5126,6 +5110,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/egov2022.xlsx
+++ b/egov2022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t xml:space="preserve">Pais</t>
   </si>
@@ -32,12 +32,18 @@
     <t xml:space="preserve">Tele_infra</t>
   </si>
   <si>
+    <t xml:space="preserve">Alto_teleinfra</t>
+  </si>
+  <si>
     <t xml:space="preserve">Region</t>
   </si>
   <si>
     <t xml:space="preserve">Afghanistan</t>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asia</t>
   </si>
   <si>
@@ -54,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si</t>
   </si>
   <si>
     <t xml:space="preserve">Angola</t>
@@ -944,10 +953,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
         <v>21</v>
@@ -965,12 +977,15 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>74</v>
@@ -988,12 +1003,15 @@
         <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>54</v>
@@ -1011,12 +1029,15 @@
         <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
         <v>71</v>
@@ -1034,12 +1055,15 @@
         <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
         <v>33</v>
@@ -1057,12 +1081,15 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>59</v>
@@ -1080,12 +1107,15 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>83</v>
@@ -1103,12 +1133,15 @@
         <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>73</v>
@@ -1126,12 +1159,15 @@
         <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>96</v>
@@ -1149,12 +1185,15 @@
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
         <v>90</v>
@@ -1172,12 +1211,15 @@
         <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
         <v>69</v>
@@ -1195,12 +1237,15 @@
         <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>72</v>
@@ -1218,12 +1263,15 @@
         <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B14" t="n">
         <v>77</v>
@@ -1241,12 +1289,15 @@
         <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" t="n">
         <v>54</v>
@@ -1264,12 +1315,15 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" t="n">
         <v>71</v>
@@ -1287,12 +1341,15 @@
         <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
         <v>76</v>
@@ -1310,12 +1367,15 @@
         <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n">
         <v>84</v>
@@ -1333,12 +1393,15 @@
         <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n">
         <v>47</v>
@@ -1356,12 +1419,15 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
         <v>38</v>
@@ -1379,12 +1445,15 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>53</v>
@@ -1402,12 +1471,15 @@
         <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
         <v>61</v>
@@ -1425,12 +1497,15 @@
         <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B23" t="n">
         <v>52</v>
@@ -1448,12 +1523,15 @@
         <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B24" t="n">
         <v>80</v>
@@ -1471,12 +1549,15 @@
         <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" t="n">
         <v>72</v>
@@ -1494,12 +1575,15 @@
         <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B26" t="n">
         <v>78</v>
@@ -1517,12 +1601,15 @@
         <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B27" t="n">
         <v>30</v>
@@ -1540,12 +1627,15 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B28" t="n">
         <v>27</v>
@@ -1563,12 +1653,15 @@
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B29" t="n">
         <v>54</v>
@@ -1586,12 +1679,15 @@
         <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B30" t="n">
         <v>47</v>
@@ -1609,12 +1705,15 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B31" t="n">
         <v>41</v>
@@ -1632,12 +1731,15 @@
         <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B32" t="n">
         <v>86</v>
@@ -1655,12 +1757,15 @@
         <v>78</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B33" t="n">
         <v>6</v>
@@ -1678,12 +1783,15 @@
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B34" t="n">
         <v>12</v>
@@ -1701,12 +1809,15 @@
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B35" t="n">
         <v>85</v>
@@ -1724,12 +1835,15 @@
         <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B36" t="n">
         <v>82</v>
@@ -1747,12 +1861,15 @@
         <v>80</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B37" t="n">
         <v>72</v>
@@ -1770,12 +1887,15 @@
         <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B38" t="n">
         <v>22</v>
@@ -1793,12 +1913,15 @@
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B39" t="n">
         <v>32</v>
@@ -1816,12 +1939,15 @@
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B40" t="n">
         <v>77</v>
@@ -1839,12 +1965,15 @@
         <v>76</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B41" t="n">
         <v>52</v>
@@ -1862,12 +1991,15 @@
         <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B42" t="n">
         <v>82</v>
@@ -1885,12 +2017,15 @@
         <v>77</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B43" t="n">
         <v>46</v>
@@ -1908,12 +2043,15 @@
         <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B44" t="n">
         <v>88</v>
@@ -1931,12 +2069,15 @@
         <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B45" t="n">
         <v>100</v>
@@ -1954,12 +2095,15 @@
         <v>98</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B46" t="n">
         <v>22</v>
@@ -1977,12 +2121,15 @@
         <v>28</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B47" t="n">
         <v>56</v>
@@ -2000,12 +2147,15 @@
         <v>76</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B48" t="n">
         <v>63</v>
@@ -2023,12 +2173,15 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H48" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B49" t="n">
         <v>68</v>
@@ -2046,12 +2199,15 @@
         <v>53</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B50" t="n">
         <v>57</v>
@@ -2069,12 +2225,15 @@
         <v>56</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B51" t="n">
         <v>53</v>
@@ -2092,12 +2251,15 @@
         <v>56</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B52" t="n">
         <v>21</v>
@@ -2115,12 +2277,15 @@
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B53" t="n">
         <v>10</v>
@@ -2138,12 +2303,15 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B54" t="n">
         <v>96</v>
@@ -2161,12 +2329,15 @@
         <v>89</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B55" t="n">
         <v>41</v>
@@ -2184,12 +2355,15 @@
         <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B56" t="n">
         <v>23</v>
@@ -2207,12 +2381,15 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B57" t="n">
         <v>61</v>
@@ -2230,12 +2407,15 @@
         <v>59</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B58" t="n">
         <v>98</v>
@@ -2253,12 +2433,15 @@
         <v>91</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B59" t="n">
         <v>90</v>
@@ -2276,12 +2459,15 @@
         <v>89</v>
       </c>
       <c r="G59" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B60" t="n">
         <v>53</v>
@@ -2299,12 +2485,15 @@
         <v>63</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B61" t="n">
         <v>25</v>
@@ -2322,12 +2511,15 @@
         <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B62" t="n">
         <v>89</v>
@@ -2345,12 +2537,15 @@
         <v>90</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B63" t="n">
         <v>56</v>
@@ -2368,12 +2563,15 @@
         <v>59</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B64" t="n">
         <v>86</v>
@@ -2391,12 +2589,15 @@
         <v>82</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B65" t="n">
         <v>72</v>
@@ -2414,12 +2615,15 @@
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B66" t="n">
         <v>48</v>
@@ -2437,12 +2641,15 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H66" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B67" t="n">
         <v>31</v>
@@ -2460,12 +2667,15 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B68" t="n">
         <v>19</v>
@@ -2483,12 +2693,15 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B69" t="n">
         <v>49</v>
@@ -2506,12 +2719,15 @@
         <v>46</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H69" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B70" t="n">
         <v>18</v>
@@ -2529,12 +2745,15 @@
         <v>26</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H70" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B71" t="n">
         <v>35</v>
@@ -2552,12 +2771,15 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H71" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B72" t="n">
         <v>79</v>
@@ -2575,12 +2797,15 @@
         <v>77</v>
       </c>
       <c r="G72" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B73" t="n">
         <v>97</v>
@@ -2598,12 +2823,15 @@
         <v>97</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H73" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B74" t="n">
         <v>57</v>
@@ -2621,12 +2849,15 @@
         <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B75" t="n">
         <v>71</v>
@@ -2644,12 +2875,15 @@
         <v>64</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H75" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B76" t="n">
         <v>63</v>
@@ -2667,12 +2901,15 @@
         <v>73</v>
       </c>
       <c r="G76" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B77" t="n">
         <v>40</v>
@@ -2690,12 +2927,15 @@
         <v>52</v>
       </c>
       <c r="G77" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B78" t="n">
         <v>87</v>
@@ -2713,12 +2953,15 @@
         <v>83</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B79" t="n">
         <v>91</v>
@@ -2736,12 +2979,15 @@
         <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B80" t="n">
         <v>85</v>
@@ -2759,12 +3005,15 @@
         <v>79</v>
       </c>
       <c r="G80" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H80" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B81" t="n">
         <v>57</v>
@@ -2782,12 +3031,15 @@
         <v>57</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H81" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B82" t="n">
         <v>92</v>
@@ -2805,12 +3057,15 @@
         <v>91</v>
       </c>
       <c r="G82" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B83" t="n">
         <v>59</v>
@@ -2828,12 +3083,15 @@
         <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B84" t="n">
         <v>88</v>
@@ -2851,12 +3109,15 @@
         <v>75</v>
       </c>
       <c r="G84" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H84" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B85" t="n">
         <v>53</v>
@@ -2874,12 +3135,15 @@
         <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B86" t="n">
         <v>39</v>
@@ -2897,12 +3161,15 @@
         <v>25</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H86" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B87" t="n">
         <v>75</v>
@@ -2920,12 +3187,15 @@
         <v>78</v>
       </c>
       <c r="G87" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B88" t="n">
         <v>69</v>
@@ -2943,12 +3213,15 @@
         <v>66</v>
       </c>
       <c r="G88" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B89" t="n">
         <v>33</v>
@@ -2966,12 +3239,15 @@
         <v>28</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B90" t="n">
         <v>87</v>
@@ -2989,12 +3265,15 @@
         <v>84</v>
       </c>
       <c r="G90" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H90" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B91" t="n">
         <v>50</v>
@@ -3012,12 +3291,15 @@
         <v>49</v>
       </c>
       <c r="G91" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H91" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B92" t="n">
         <v>40</v>
@@ -3035,12 +3317,15 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B93" t="n">
         <v>23</v>
@@ -3058,12 +3343,15 @@
         <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B94" t="n">
         <v>28</v>
@@ -3081,12 +3369,15 @@
         <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B95" t="n">
         <v>88</v>
@@ -3104,12 +3395,15 @@
         <v>100</v>
       </c>
       <c r="G95" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H95" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B96" t="n">
         <v>89</v>
@@ -3127,12 +3421,15 @@
         <v>86</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H96" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B97" t="n">
         <v>88</v>
@@ -3150,12 +3447,15 @@
         <v>95</v>
       </c>
       <c r="G97" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H97" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B98" t="n">
         <v>31</v>
@@ -3173,12 +3473,15 @@
         <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B99" t="n">
         <v>29</v>
@@ -3196,12 +3499,15 @@
         <v>18</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B100" t="n">
         <v>78</v>
@@ -3219,12 +3525,15 @@
         <v>79</v>
       </c>
       <c r="G100" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H100" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B101" t="n">
         <v>57</v>
@@ -3242,12 +3551,15 @@
         <v>58</v>
       </c>
       <c r="G101" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H101" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B102" t="n">
         <v>29</v>
@@ -3265,12 +3577,15 @@
         <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B103" t="n">
         <v>91</v>
@@ -3288,12 +3603,15 @@
         <v>92</v>
       </c>
       <c r="G103" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H103" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B104" t="n">
         <v>32</v>
@@ -3311,12 +3629,15 @@
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H104" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B105" t="n">
         <v>26</v>
@@ -3334,12 +3655,15 @@
         <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B106" t="n">
         <v>72</v>
@@ -3357,12 +3681,15 @@
         <v>76</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H106" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B107" t="n">
         <v>75</v>
@@ -3380,12 +3707,15 @@
         <v>63</v>
       </c>
       <c r="G107" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H107" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B108" t="n">
         <v>30</v>
@@ -3403,12 +3733,15 @@
         <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H108" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B109" t="n">
         <v>72</v>
@@ -3426,12 +3759,15 @@
         <v>88</v>
       </c>
       <c r="G109" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B110" t="n">
         <v>72</v>
@@ -3449,12 +3785,15 @@
         <v>70</v>
       </c>
       <c r="G110" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H110" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B111" t="n">
         <v>72</v>
@@ -3472,12 +3811,15 @@
         <v>79</v>
       </c>
       <c r="G111" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B112" t="n">
         <v>57</v>
@@ -3495,12 +3837,15 @@
         <v>67</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B113" t="n">
         <v>26</v>
@@ -3518,12 +3863,15 @@
         <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B114" t="n">
         <v>47</v>
@@ -3541,12 +3889,15 @@
         <v>61</v>
       </c>
       <c r="G114" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H114" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B115" t="n">
         <v>50</v>
@@ -3564,12 +3915,15 @@
         <v>51</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B116" t="n">
         <v>42</v>
@@ -3587,12 +3941,15 @@
         <v>48</v>
       </c>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H116" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B117" t="n">
         <v>48</v>
@@ -3610,12 +3967,15 @@
         <v>51</v>
       </c>
       <c r="G117" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H117" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B118" t="n">
         <v>96</v>
@@ -3633,12 +3993,15 @@
         <v>96</v>
       </c>
       <c r="G118" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B119" t="n">
         <v>97</v>
@@ -3656,12 +4019,15 @@
         <v>89</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="H119" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B120" t="n">
         <v>47</v>
@@ -3679,12 +4045,15 @@
         <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H120" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B121" t="n">
         <v>18</v>
@@ -3702,12 +4071,15 @@
         <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B122" t="n">
         <v>41</v>
@@ -3725,12 +4097,15 @@
         <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B123" t="n">
         <v>69</v>
@@ -3748,12 +4123,15 @@
         <v>64</v>
       </c>
       <c r="G123" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H123" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B124" t="n">
         <v>91</v>
@@ -3771,12 +4149,15 @@
         <v>91</v>
       </c>
       <c r="G124" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H124" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B125" t="n">
         <v>79</v>
@@ -3794,12 +4175,15 @@
         <v>80</v>
       </c>
       <c r="G125" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H125" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B126" t="n">
         <v>38</v>
@@ -3817,12 +4201,15 @@
         <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H126" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B127" t="n">
         <v>47</v>
@@ -3840,12 +4227,15 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H127" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B128" t="n">
         <v>69</v>
@@ -3863,12 +4253,15 @@
         <v>66</v>
       </c>
       <c r="G128" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H128" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B129" t="n">
         <v>27</v>
@@ -3886,12 +4279,15 @@
         <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H129" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B130" t="n">
         <v>62</v>
@@ -3909,12 +4305,15 @@
         <v>60</v>
       </c>
       <c r="G130" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H130" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B131" t="n">
         <v>75</v>
@@ -3932,12 +4331,15 @@
         <v>63</v>
       </c>
       <c r="G131" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H131" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B132" t="n">
         <v>64</v>
@@ -3955,12 +4357,15 @@
         <v>56</v>
       </c>
       <c r="G132" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H132" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B133" t="n">
         <v>86</v>
@@ -3978,12 +4383,15 @@
         <v>83</v>
       </c>
       <c r="G133" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B134" t="n">
         <v>84</v>
@@ -4001,12 +4409,15 @@
         <v>82</v>
       </c>
       <c r="G134" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H134" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B135" t="n">
         <v>71</v>
@@ -4024,12 +4435,15 @@
         <v>82</v>
       </c>
       <c r="G135" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="H135" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B136" t="n">
         <v>76</v>
@@ -4047,12 +4461,15 @@
         <v>80</v>
       </c>
       <c r="G136" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H136" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B137" t="n">
         <v>82</v>
@@ -4070,12 +4487,15 @@
         <v>81</v>
       </c>
       <c r="G137" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H137" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B138" t="n">
         <v>52</v>
@@ -4093,12 +4513,15 @@
         <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B139" t="n">
         <v>67</v>
@@ -4118,10 +4541,13 @@
       <c r="G139" t="s">
         <v>16</v>
       </c>
+      <c r="H139" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B140" t="n">
         <v>53</v>
@@ -4139,12 +4565,15 @@
         <v>57</v>
       </c>
       <c r="G140" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H140" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B141" t="n">
         <v>56</v>
@@ -4162,12 +4591,15 @@
         <v>55</v>
       </c>
       <c r="G141" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H141" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B142" t="n">
         <v>38</v>
@@ -4185,12 +4617,15 @@
         <v>16</v>
       </c>
       <c r="G142" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H142" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B143" t="n">
         <v>63</v>
@@ -4208,12 +4643,15 @@
         <v>81</v>
       </c>
       <c r="G143" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H143" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B144" t="n">
         <v>37</v>
@@ -4231,12 +4669,15 @@
         <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B145" t="n">
         <v>87</v>
@@ -4254,12 +4695,15 @@
         <v>87</v>
       </c>
       <c r="G145" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="H145" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B146" t="n">
         <v>41</v>
@@ -4277,12 +4721,15 @@
         <v>50</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H146" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B147" t="n">
         <v>83</v>
@@ -4300,12 +4747,15 @@
         <v>79</v>
       </c>
       <c r="G147" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H147" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B148" t="n">
         <v>67</v>
@@ -4323,12 +4773,15 @@
         <v>82</v>
       </c>
       <c r="G148" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H148" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B149" t="n">
         <v>20</v>
@@ -4346,12 +4799,15 @@
         <v>26</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H149" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B150" t="n">
         <v>93</v>
@@ -4369,12 +4825,15 @@
         <v>88</v>
       </c>
       <c r="G150" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="H150" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B151" t="n">
         <v>81</v>
@@ -4392,12 +4851,15 @@
         <v>83</v>
       </c>
       <c r="G151" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H151" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B152" t="n">
         <v>89</v>
@@ -4415,12 +4877,15 @@
         <v>82</v>
       </c>
       <c r="G152" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H152" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B153" t="n">
         <v>30</v>
@@ -4438,12 +4903,15 @@
         <v>20</v>
       </c>
       <c r="G153" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H153" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B154" t="n">
         <v>6</v>
@@ -4461,12 +4929,15 @@
         <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H154" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B155" t="n">
         <v>73</v>
@@ -4484,12 +4955,15 @@
         <v>68</v>
       </c>
       <c r="G155" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H155" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -4507,12 +4981,15 @@
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H156" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B157" t="n">
         <v>90</v>
@@ -4530,12 +5007,15 @@
         <v>89</v>
       </c>
       <c r="G157" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H157" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B158" t="n">
         <v>61</v>
@@ -4553,12 +5033,15 @@
         <v>55</v>
       </c>
       <c r="G158" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H158" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B159" t="n">
         <v>24</v>
@@ -4576,12 +5059,15 @@
         <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H159" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B160" t="n">
         <v>56</v>
@@ -4599,12 +5085,15 @@
         <v>71</v>
       </c>
       <c r="G160" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H160" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B161" t="n">
         <v>97</v>
@@ -4622,12 +5111,15 @@
         <v>96</v>
       </c>
       <c r="G161" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H161" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B162" t="n">
         <v>89</v>
@@ -4645,12 +5137,15 @@
         <v>94</v>
       </c>
       <c r="G162" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H162" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B163" t="n">
         <v>34</v>
@@ -4668,12 +5163,15 @@
         <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H163" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B164" t="n">
         <v>47</v>
@@ -4691,12 +5189,15 @@
         <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H164" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B165" t="n">
         <v>77</v>
@@ -4714,12 +5215,15 @@
         <v>73</v>
       </c>
       <c r="G165" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H165" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B166" t="n">
         <v>40</v>
@@ -4737,12 +5241,15 @@
         <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H166" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B167" t="n">
         <v>38</v>
@@ -4760,12 +5267,15 @@
         <v>28</v>
       </c>
       <c r="G167" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H167" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B168" t="n">
         <v>49</v>
@@ -4783,12 +5293,15 @@
         <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H168" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B169" t="n">
         <v>62</v>
@@ -4806,12 +5319,15 @@
         <v>67</v>
       </c>
       <c r="G169" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H169" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B170" t="n">
         <v>64</v>
@@ -4829,12 +5345,15 @@
         <v>66</v>
       </c>
       <c r="G170" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B171" t="n">
         <v>45</v>
@@ -4852,12 +5371,15 @@
         <v>36</v>
       </c>
       <c r="G171" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H171" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B172" t="n">
         <v>33</v>
@@ -4875,12 +5397,15 @@
         <v>26</v>
       </c>
       <c r="G172" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H172" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B173" t="n">
         <v>40</v>
@@ -4898,12 +5423,15 @@
         <v>25</v>
       </c>
       <c r="G173" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H173" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B174" t="n">
         <v>81</v>
@@ -4921,12 +5449,15 @@
         <v>73</v>
       </c>
       <c r="G174" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H174" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B175" t="n">
         <v>92</v>
@@ -4944,12 +5475,15 @@
         <v>93</v>
       </c>
       <c r="G175" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="H175" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B176" t="n">
         <v>85</v>
@@ -4969,10 +5503,13 @@
       <c r="G176" t="s">
         <v>16</v>
       </c>
+      <c r="H176" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B177" t="n">
         <v>72</v>
@@ -4990,12 +5527,15 @@
         <v>66</v>
       </c>
       <c r="G177" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H177" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B178" t="n">
         <v>47</v>
@@ -5013,12 +5553,15 @@
         <v>47</v>
       </c>
       <c r="G178" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="H178" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B179" t="n">
         <v>67</v>
@@ -5036,12 +5579,15 @@
         <v>70</v>
       </c>
       <c r="G179" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H179" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B180" t="n">
         <v>23</v>
@@ -5059,12 +5605,15 @@
         <v>17</v>
       </c>
       <c r="G180" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H180" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B181" t="n">
         <v>47</v>
@@ -5082,12 +5631,15 @@
         <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H181" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B182" t="n">
         <v>44</v>
@@ -5105,7 +5657,10 @@
         <v>38</v>
       </c>
       <c r="G182" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H182" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
